--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H2">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I2">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J2">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>1917.833197533059</v>
+        <v>16.90080283903712</v>
       </c>
       <c r="R2">
-        <v>17260.49877779753</v>
+        <v>152.107225551334</v>
       </c>
       <c r="S2">
-        <v>0.1063033753747983</v>
+        <v>0.001115397249187311</v>
       </c>
       <c r="T2">
-        <v>0.1063033753747983</v>
+        <v>0.001115397249187311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H3">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I3">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J3">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>6.23384841956211</v>
+        <v>9.15804332438689</v>
       </c>
       <c r="R3">
-        <v>56.104635776059</v>
+        <v>82.422389919482</v>
       </c>
       <c r="S3">
-        <v>0.0003455353309280073</v>
+        <v>0.0006044006565395399</v>
       </c>
       <c r="T3">
-        <v>0.0003455353309280073</v>
+        <v>0.0006044006565395398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H4">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I4">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J4">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>159.5049964304362</v>
+        <v>311.2780093476953</v>
       </c>
       <c r="R4">
-        <v>1435.544967873926</v>
+        <v>2801.502084129258</v>
       </c>
       <c r="S4">
-        <v>0.008841185735814354</v>
+        <v>0.02054332203420357</v>
       </c>
       <c r="T4">
-        <v>0.008841185735814355</v>
+        <v>0.02054332203420357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H5">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I5">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J5">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>4313.482904334308</v>
+        <v>6205.604784471217</v>
       </c>
       <c r="R5">
-        <v>38821.34613900877</v>
+        <v>55850.44306024094</v>
       </c>
       <c r="S5">
-        <v>0.2390915919810178</v>
+        <v>0.4095494499323536</v>
       </c>
       <c r="T5">
-        <v>0.2390915919810178</v>
+        <v>0.4095494499323535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J6">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>2910.59974552522</v>
+        <v>17.459529439436</v>
       </c>
       <c r="R6">
-        <v>26195.39770972698</v>
+        <v>157.135764954924</v>
       </c>
       <c r="S6">
-        <v>0.1613313283513679</v>
+        <v>0.001152271362155083</v>
       </c>
       <c r="T6">
-        <v>0.1613313283513679</v>
+        <v>0.001152271362155083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J7">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>9.460800682227999</v>
@@ -883,10 +883,10 @@
         <v>85.14720614005201</v>
       </c>
       <c r="S7">
-        <v>0.0005244017298077323</v>
+        <v>0.0006243816436750855</v>
       </c>
       <c r="T7">
-        <v>0.0005244017298077324</v>
+        <v>0.0006243816436750855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J8">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>242.072773908392</v>
+        <v>321.568603563732</v>
       </c>
       <c r="R8">
-        <v>2178.654965175528</v>
+        <v>2894.117432073588</v>
       </c>
       <c r="S8">
-        <v>0.01341782642301919</v>
+        <v>0.02122246731448329</v>
       </c>
       <c r="T8">
-        <v>0.01341782642301919</v>
+        <v>0.02122246731448329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J9">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>6546.357764498132</v>
+        <v>6410.756959647068</v>
       </c>
       <c r="R9">
-        <v>58917.21988048319</v>
+        <v>57696.81263682361</v>
       </c>
       <c r="S9">
-        <v>0.3628573786668819</v>
+        <v>0.4230888169100809</v>
       </c>
       <c r="T9">
-        <v>0.3628573786668819</v>
+        <v>0.4230888169100808</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H10">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I10">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J10">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>571.7114914731511</v>
+        <v>4.755496745336778</v>
       </c>
       <c r="R10">
-        <v>5145.40342325836</v>
+        <v>42.799470708031</v>
       </c>
       <c r="S10">
-        <v>0.03168933636268883</v>
+        <v>0.000313847101749283</v>
       </c>
       <c r="T10">
-        <v>0.03168933636268883</v>
+        <v>0.0003138471017492829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H11">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I11">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J11">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>1.858327816073778</v>
+        <v>2.576862509879222</v>
       </c>
       <c r="R11">
-        <v>16.724950344664</v>
+        <v>23.191762588913</v>
       </c>
       <c r="S11">
-        <v>0.0001030050578202668</v>
+        <v>0.0001700644272598914</v>
       </c>
       <c r="T11">
-        <v>0.0001030050578202668</v>
+        <v>0.0001700644272598914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H12">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I12">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J12">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>47.54888982209955</v>
+        <v>87.58646405416633</v>
       </c>
       <c r="R12">
-        <v>427.9400083988959</v>
+        <v>788.278176487497</v>
       </c>
       <c r="S12">
-        <v>0.002635582432255004</v>
+        <v>0.005780417770829773</v>
       </c>
       <c r="T12">
-        <v>0.002635582432255005</v>
+        <v>0.005780417770829772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H13">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I13">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J13">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>1285.861433545446</v>
+        <v>1746.114290336312</v>
       </c>
       <c r="R13">
-        <v>11572.75290190902</v>
+        <v>15715.0286130268</v>
       </c>
       <c r="S13">
-        <v>0.07127387868037023</v>
+        <v>0.1152377845453131</v>
       </c>
       <c r="T13">
-        <v>0.07127387868037025</v>
+        <v>0.1152377845453131</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H14">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J14">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>8.575925690777778</v>
+        <v>0.02338094415333334</v>
       </c>
       <c r="R14">
-        <v>77.18333121699999</v>
+        <v>0.21042849738</v>
       </c>
       <c r="S14">
-        <v>0.0004753540866149343</v>
+        <v>1.543065204677338E-06</v>
       </c>
       <c r="T14">
-        <v>0.0004753540866149342</v>
+        <v>1.543065204677338E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H15">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J15">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>0.02787574064444444</v>
+        <v>0.01266943952666667</v>
       </c>
       <c r="R15">
-        <v>0.2508816658</v>
+        <v>0.11402495574</v>
       </c>
       <c r="S15">
-        <v>1.545121507641343E-06</v>
+        <v>8.361412254421692E-07</v>
       </c>
       <c r="T15">
-        <v>1.545121507641344E-06</v>
+        <v>8.361412254421692E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H16">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J16">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>0.7132544156888887</v>
+        <v>0.43062887734</v>
       </c>
       <c r="R16">
-        <v>6.419289741199998</v>
+        <v>3.87565989606</v>
       </c>
       <c r="S16">
-        <v>3.953490427959981E-05</v>
+        <v>2.842008570718414E-05</v>
       </c>
       <c r="T16">
-        <v>3.953490427959981E-05</v>
+        <v>2.842008570718414E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H17">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J17">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>19.28849125335556</v>
+        <v>8.584970801993334</v>
       </c>
       <c r="R17">
-        <v>173.5964212802</v>
+        <v>77.26473721794</v>
       </c>
       <c r="S17">
-        <v>0.001069139760828248</v>
+        <v>0.0005665797600324115</v>
       </c>
       <c r="T17">
-        <v>0.001069139760828248</v>
+        <v>0.0005665797600324114</v>
       </c>
     </row>
   </sheetData>
